--- a/va_facility_data_2025-02-20/Minot VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Minot%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Minot VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Minot%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R90fd51f13b364805a8a26502a7fd3776"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rc49e116f05e74a6882439f84e53992eb"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R70aebd7ab64441b9a755b60b9c7d620e"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Rd098f7e3b2884b759fb6fdb5037ccf9a"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R31dfec1643f4416d8fdc3d240780ba0d"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R71058ab782bb482a91d4e876f90b83cd"/>
   </x:sheets>
 </x:workbook>
 </file>
